--- a/data/headers.xlsx
+++ b/data/headers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/2023_Moravia_mowing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282E6552-4223-5A42-882F-D70D32B76F60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846CD5A7-FB96-6E46-BE4F-7660E4DA9D67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9680" yWindow="500" windowWidth="17420" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1914,10 +1914,10 @@
   <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O97" sqref="O97"/>
+      <selection pane="bottomRight" activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
